--- a/Quality2/wwwroot/template.xlsx
+++ b/Quality2/wwwroot/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Программирование\Projects\Quality\Quality2\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Программирование\ASP.net\Quality2\Quality2\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ</t>
   </si>
@@ -138,12 +138,6 @@
       </rPr>
       <t xml:space="preserve"> (по необработанной стороне)</t>
     </r>
-  </si>
-  <si>
-    <t>­</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <r>
@@ -781,19 +775,219 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -832,206 +1026,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20316,4544 +20310,6 @@
         <row r="1">
           <cell r="A1" t="str">
             <v>Марка Пленки</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Толщина</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Допустимое отклонение по толщине, %</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Прочность, MPa вдоль</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Прочность, MPa поперек</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>ε, % вдоль</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>ε, % поперек</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Трение, μS</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>Трение, μD</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Светопропускание, %</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>Прочность сварного шва, MPa</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>Активация, дин</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>Плотность белой пленки</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>СП30</v>
-          </cell>
-          <cell r="C2">
-            <v>10</v>
-          </cell>
-          <cell r="D2">
-            <v>20</v>
-          </cell>
-          <cell r="E2">
-            <v>16</v>
-          </cell>
-          <cell r="F2">
-            <v>150</v>
-          </cell>
-          <cell r="G2">
-            <v>300</v>
-          </cell>
-          <cell r="H2">
-            <v>0.3</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J2">
-            <v>60</v>
-          </cell>
-          <cell r="M2">
-            <v>0.96399999999999997</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>СП35</v>
-          </cell>
-          <cell r="C3">
-            <v>10</v>
-          </cell>
-          <cell r="D3">
-            <v>20</v>
-          </cell>
-          <cell r="E3">
-            <v>16</v>
-          </cell>
-          <cell r="F3">
-            <v>150</v>
-          </cell>
-          <cell r="G3">
-            <v>300</v>
-          </cell>
-          <cell r="H3">
-            <v>0.3</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J3">
-            <v>60</v>
-          </cell>
-          <cell r="M3">
-            <v>0.96399999999999997</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>СП40</v>
-          </cell>
-          <cell r="C4">
-            <v>10</v>
-          </cell>
-          <cell r="D4">
-            <v>20</v>
-          </cell>
-          <cell r="E4">
-            <v>16</v>
-          </cell>
-          <cell r="F4">
-            <v>150</v>
-          </cell>
-          <cell r="G4">
-            <v>300</v>
-          </cell>
-          <cell r="H4">
-            <v>0.3</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J4">
-            <v>60</v>
-          </cell>
-          <cell r="M4">
-            <v>0.96099999999999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>СП45</v>
-          </cell>
-          <cell r="C5">
-            <v>10</v>
-          </cell>
-          <cell r="D5">
-            <v>18</v>
-          </cell>
-          <cell r="E5">
-            <v>16</v>
-          </cell>
-          <cell r="F5">
-            <v>250</v>
-          </cell>
-          <cell r="G5">
-            <v>300</v>
-          </cell>
-          <cell r="H5">
-            <v>0.3</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J5">
-            <v>60</v>
-          </cell>
-          <cell r="M5">
-            <v>0.96099999999999997</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>СП50</v>
-          </cell>
-          <cell r="C6">
-            <v>10</v>
-          </cell>
-          <cell r="D6">
-            <v>18</v>
-          </cell>
-          <cell r="E6">
-            <v>16</v>
-          </cell>
-          <cell r="F6">
-            <v>250</v>
-          </cell>
-          <cell r="G6">
-            <v>300</v>
-          </cell>
-          <cell r="H6">
-            <v>0.3</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J6">
-            <v>60</v>
-          </cell>
-          <cell r="M6">
-            <v>0.95499999999999996</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>СП55</v>
-          </cell>
-          <cell r="C7">
-            <v>10</v>
-          </cell>
-          <cell r="D7">
-            <v>18</v>
-          </cell>
-          <cell r="E7">
-            <v>16</v>
-          </cell>
-          <cell r="F7">
-            <v>250</v>
-          </cell>
-          <cell r="G7">
-            <v>300</v>
-          </cell>
-          <cell r="H7">
-            <v>0.3</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J7">
-            <v>60</v>
-          </cell>
-          <cell r="M7">
-            <v>0.95499999999999996</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>СП60</v>
-          </cell>
-          <cell r="C8">
-            <v>10</v>
-          </cell>
-          <cell r="D8">
-            <v>18</v>
-          </cell>
-          <cell r="E8">
-            <v>16</v>
-          </cell>
-          <cell r="F8">
-            <v>250</v>
-          </cell>
-          <cell r="G8">
-            <v>300</v>
-          </cell>
-          <cell r="H8">
-            <v>0.3</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J8">
-            <v>60</v>
-          </cell>
-          <cell r="M8">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>СП65</v>
-          </cell>
-          <cell r="C9">
-            <v>10</v>
-          </cell>
-          <cell r="D9">
-            <v>18</v>
-          </cell>
-          <cell r="E9">
-            <v>16</v>
-          </cell>
-          <cell r="F9">
-            <v>250</v>
-          </cell>
-          <cell r="G9">
-            <v>300</v>
-          </cell>
-          <cell r="H9">
-            <v>0.3</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J9">
-            <v>50</v>
-          </cell>
-          <cell r="M9">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>СП70</v>
-          </cell>
-          <cell r="C10">
-            <v>10</v>
-          </cell>
-          <cell r="D10">
-            <v>18</v>
-          </cell>
-          <cell r="E10">
-            <v>16</v>
-          </cell>
-          <cell r="F10">
-            <v>250</v>
-          </cell>
-          <cell r="G10">
-            <v>300</v>
-          </cell>
-          <cell r="H10">
-            <v>0.3</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J10">
-            <v>50</v>
-          </cell>
-          <cell r="M10">
-            <v>0.94699999999999995</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>СП75</v>
-          </cell>
-          <cell r="C11">
-            <v>8</v>
-          </cell>
-          <cell r="D11">
-            <v>18</v>
-          </cell>
-          <cell r="E11">
-            <v>18</v>
-          </cell>
-          <cell r="F11">
-            <v>300</v>
-          </cell>
-          <cell r="G11">
-            <v>300</v>
-          </cell>
-          <cell r="H11">
-            <v>0.3</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J11">
-            <v>50</v>
-          </cell>
-          <cell r="M11">
-            <v>0.94699999999999995</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>СП80</v>
-          </cell>
-          <cell r="C12">
-            <v>8</v>
-          </cell>
-          <cell r="D12">
-            <v>18</v>
-          </cell>
-          <cell r="E12">
-            <v>18</v>
-          </cell>
-          <cell r="F12">
-            <v>300</v>
-          </cell>
-          <cell r="G12">
-            <v>300</v>
-          </cell>
-          <cell r="H12">
-            <v>0.3</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J12">
-            <v>50</v>
-          </cell>
-          <cell r="M12">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>СП85</v>
-          </cell>
-          <cell r="C13">
-            <v>8</v>
-          </cell>
-          <cell r="D13">
-            <v>18</v>
-          </cell>
-          <cell r="E13">
-            <v>18</v>
-          </cell>
-          <cell r="F13">
-            <v>300</v>
-          </cell>
-          <cell r="G13">
-            <v>300</v>
-          </cell>
-          <cell r="H13">
-            <v>0.3</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J13">
-            <v>50</v>
-          </cell>
-          <cell r="M13">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>СП90</v>
-          </cell>
-          <cell r="C14">
-            <v>8</v>
-          </cell>
-          <cell r="D14">
-            <v>18</v>
-          </cell>
-          <cell r="E14">
-            <v>18</v>
-          </cell>
-          <cell r="F14">
-            <v>300</v>
-          </cell>
-          <cell r="G14">
-            <v>300</v>
-          </cell>
-          <cell r="H14">
-            <v>0.3</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J14">
-            <v>50</v>
-          </cell>
-          <cell r="M14">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>СП95</v>
-          </cell>
-          <cell r="C15">
-            <v>8</v>
-          </cell>
-          <cell r="D15">
-            <v>18</v>
-          </cell>
-          <cell r="E15">
-            <v>18</v>
-          </cell>
-          <cell r="F15">
-            <v>300</v>
-          </cell>
-          <cell r="G15">
-            <v>300</v>
-          </cell>
-          <cell r="H15">
-            <v>0.3</v>
-          </cell>
-          <cell r="I15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J15">
-            <v>44</v>
-          </cell>
-          <cell r="M15">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>СП100</v>
-          </cell>
-          <cell r="C16">
-            <v>8</v>
-          </cell>
-          <cell r="D16">
-            <v>18</v>
-          </cell>
-          <cell r="E16">
-            <v>18</v>
-          </cell>
-          <cell r="F16">
-            <v>300</v>
-          </cell>
-          <cell r="G16">
-            <v>300</v>
-          </cell>
-          <cell r="H16">
-            <v>0.3</v>
-          </cell>
-          <cell r="I16" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J16">
-            <v>44</v>
-          </cell>
-          <cell r="M16">
-            <v>0.94099999999999995</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>СП105</v>
-          </cell>
-          <cell r="C17">
-            <v>8</v>
-          </cell>
-          <cell r="D17">
-            <v>18</v>
-          </cell>
-          <cell r="E17">
-            <v>18</v>
-          </cell>
-          <cell r="F17">
-            <v>300</v>
-          </cell>
-          <cell r="G17">
-            <v>300</v>
-          </cell>
-          <cell r="H17">
-            <v>0.3</v>
-          </cell>
-          <cell r="I17" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J17">
-            <v>44</v>
-          </cell>
-          <cell r="M17">
-            <v>0.94099999999999995</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>СП110</v>
-          </cell>
-          <cell r="C18">
-            <v>8</v>
-          </cell>
-          <cell r="D18">
-            <v>18</v>
-          </cell>
-          <cell r="E18">
-            <v>18</v>
-          </cell>
-          <cell r="F18">
-            <v>300</v>
-          </cell>
-          <cell r="G18">
-            <v>300</v>
-          </cell>
-          <cell r="H18">
-            <v>0.3</v>
-          </cell>
-          <cell r="I18" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J18">
-            <v>44</v>
-          </cell>
-          <cell r="M18">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>СП115</v>
-          </cell>
-          <cell r="C19">
-            <v>8</v>
-          </cell>
-          <cell r="D19">
-            <v>18</v>
-          </cell>
-          <cell r="E19">
-            <v>18</v>
-          </cell>
-          <cell r="F19">
-            <v>300</v>
-          </cell>
-          <cell r="G19">
-            <v>300</v>
-          </cell>
-          <cell r="H19">
-            <v>0.3</v>
-          </cell>
-          <cell r="I19" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J19">
-            <v>44</v>
-          </cell>
-          <cell r="M19">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>СП120</v>
-          </cell>
-          <cell r="C20">
-            <v>8</v>
-          </cell>
-          <cell r="D20">
-            <v>18</v>
-          </cell>
-          <cell r="E20">
-            <v>18</v>
-          </cell>
-          <cell r="F20">
-            <v>300</v>
-          </cell>
-          <cell r="G20">
-            <v>300</v>
-          </cell>
-          <cell r="H20">
-            <v>0.3</v>
-          </cell>
-          <cell r="I20" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J20">
-            <v>44</v>
-          </cell>
-          <cell r="M20">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>СП125</v>
-          </cell>
-          <cell r="C21">
-            <v>8</v>
-          </cell>
-          <cell r="D21">
-            <v>18</v>
-          </cell>
-          <cell r="E21">
-            <v>18</v>
-          </cell>
-          <cell r="F21">
-            <v>300</v>
-          </cell>
-          <cell r="G21">
-            <v>300</v>
-          </cell>
-          <cell r="H21">
-            <v>0.3</v>
-          </cell>
-          <cell r="I21" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J21">
-            <v>44</v>
-          </cell>
-          <cell r="M21">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>СП130</v>
-          </cell>
-          <cell r="C22">
-            <v>8</v>
-          </cell>
-          <cell r="D22">
-            <v>18</v>
-          </cell>
-          <cell r="E22">
-            <v>18</v>
-          </cell>
-          <cell r="F22">
-            <v>300</v>
-          </cell>
-          <cell r="G22">
-            <v>300</v>
-          </cell>
-          <cell r="H22">
-            <v>0.3</v>
-          </cell>
-          <cell r="I22" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J22">
-            <v>44</v>
-          </cell>
-          <cell r="M22">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>СП135</v>
-          </cell>
-          <cell r="C23">
-            <v>8</v>
-          </cell>
-          <cell r="D23">
-            <v>18</v>
-          </cell>
-          <cell r="E23">
-            <v>18</v>
-          </cell>
-          <cell r="F23">
-            <v>300</v>
-          </cell>
-          <cell r="G23">
-            <v>300</v>
-          </cell>
-          <cell r="H23">
-            <v>0.3</v>
-          </cell>
-          <cell r="I23" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J23">
-            <v>44</v>
-          </cell>
-          <cell r="M23">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>СП140</v>
-          </cell>
-          <cell r="C24">
-            <v>8</v>
-          </cell>
-          <cell r="D24">
-            <v>18</v>
-          </cell>
-          <cell r="E24">
-            <v>18</v>
-          </cell>
-          <cell r="F24">
-            <v>300</v>
-          </cell>
-          <cell r="G24">
-            <v>300</v>
-          </cell>
-          <cell r="H24">
-            <v>0.3</v>
-          </cell>
-          <cell r="I24" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J24">
-            <v>44</v>
-          </cell>
-          <cell r="M24">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>СП145</v>
-          </cell>
-          <cell r="C25">
-            <v>8</v>
-          </cell>
-          <cell r="D25">
-            <v>18</v>
-          </cell>
-          <cell r="E25">
-            <v>18</v>
-          </cell>
-          <cell r="F25">
-            <v>300</v>
-          </cell>
-          <cell r="G25">
-            <v>300</v>
-          </cell>
-          <cell r="H25">
-            <v>0.3</v>
-          </cell>
-          <cell r="I25" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J25">
-            <v>44</v>
-          </cell>
-          <cell r="M25">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>СП150</v>
-          </cell>
-          <cell r="C26">
-            <v>8</v>
-          </cell>
-          <cell r="D26">
-            <v>18</v>
-          </cell>
-          <cell r="E26">
-            <v>18</v>
-          </cell>
-          <cell r="F26">
-            <v>300</v>
-          </cell>
-          <cell r="G26">
-            <v>300</v>
-          </cell>
-          <cell r="H26">
-            <v>0.3</v>
-          </cell>
-          <cell r="I26" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J26">
-            <v>44</v>
-          </cell>
-          <cell r="M26">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>КЖ30</v>
-          </cell>
-          <cell r="C27">
-            <v>10</v>
-          </cell>
-          <cell r="D27">
-            <v>20</v>
-          </cell>
-          <cell r="E27">
-            <v>16</v>
-          </cell>
-          <cell r="F27">
-            <v>150</v>
-          </cell>
-          <cell r="G27">
-            <v>300</v>
-          </cell>
-          <cell r="H27">
-            <v>0.3</v>
-          </cell>
-          <cell r="I27" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J27">
-            <v>60</v>
-          </cell>
-          <cell r="M27">
-            <v>0.96399999999999997</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>КЖ35</v>
-          </cell>
-          <cell r="C28">
-            <v>10</v>
-          </cell>
-          <cell r="D28">
-            <v>20</v>
-          </cell>
-          <cell r="E28">
-            <v>16</v>
-          </cell>
-          <cell r="F28">
-            <v>150</v>
-          </cell>
-          <cell r="G28">
-            <v>300</v>
-          </cell>
-          <cell r="H28">
-            <v>0.3</v>
-          </cell>
-          <cell r="I28" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J28">
-            <v>60</v>
-          </cell>
-          <cell r="M28">
-            <v>0.96399999999999997</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>КЖ40</v>
-          </cell>
-          <cell r="C29">
-            <v>10</v>
-          </cell>
-          <cell r="D29">
-            <v>20</v>
-          </cell>
-          <cell r="E29">
-            <v>16</v>
-          </cell>
-          <cell r="F29">
-            <v>150</v>
-          </cell>
-          <cell r="G29">
-            <v>300</v>
-          </cell>
-          <cell r="H29">
-            <v>0.3</v>
-          </cell>
-          <cell r="I29" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J29">
-            <v>60</v>
-          </cell>
-          <cell r="M29">
-            <v>0.96099999999999997</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>КЖ45</v>
-          </cell>
-          <cell r="C30">
-            <v>10</v>
-          </cell>
-          <cell r="D30">
-            <v>18</v>
-          </cell>
-          <cell r="E30">
-            <v>16</v>
-          </cell>
-          <cell r="F30">
-            <v>250</v>
-          </cell>
-          <cell r="G30">
-            <v>300</v>
-          </cell>
-          <cell r="H30">
-            <v>0.3</v>
-          </cell>
-          <cell r="I30" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J30">
-            <v>60</v>
-          </cell>
-          <cell r="M30">
-            <v>0.96099999999999997</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>КЖ50</v>
-          </cell>
-          <cell r="C31">
-            <v>10</v>
-          </cell>
-          <cell r="D31">
-            <v>18</v>
-          </cell>
-          <cell r="E31">
-            <v>16</v>
-          </cell>
-          <cell r="F31">
-            <v>250</v>
-          </cell>
-          <cell r="G31">
-            <v>300</v>
-          </cell>
-          <cell r="H31">
-            <v>0.3</v>
-          </cell>
-          <cell r="I31" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J31">
-            <v>60</v>
-          </cell>
-          <cell r="M31">
-            <v>0.95499999999999996</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>КЖ55</v>
-          </cell>
-          <cell r="C32">
-            <v>10</v>
-          </cell>
-          <cell r="D32">
-            <v>18</v>
-          </cell>
-          <cell r="E32">
-            <v>16</v>
-          </cell>
-          <cell r="F32">
-            <v>250</v>
-          </cell>
-          <cell r="G32">
-            <v>300</v>
-          </cell>
-          <cell r="H32">
-            <v>0.3</v>
-          </cell>
-          <cell r="I32" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J32">
-            <v>60</v>
-          </cell>
-          <cell r="M32">
-            <v>0.95499999999999996</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>КЖ60</v>
-          </cell>
-          <cell r="C33">
-            <v>10</v>
-          </cell>
-          <cell r="D33">
-            <v>18</v>
-          </cell>
-          <cell r="E33">
-            <v>16</v>
-          </cell>
-          <cell r="F33">
-            <v>250</v>
-          </cell>
-          <cell r="G33">
-            <v>300</v>
-          </cell>
-          <cell r="H33">
-            <v>0.3</v>
-          </cell>
-          <cell r="I33" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J33">
-            <v>60</v>
-          </cell>
-          <cell r="M33">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>КЖ65</v>
-          </cell>
-          <cell r="C34">
-            <v>10</v>
-          </cell>
-          <cell r="D34">
-            <v>18</v>
-          </cell>
-          <cell r="E34">
-            <v>16</v>
-          </cell>
-          <cell r="F34">
-            <v>250</v>
-          </cell>
-          <cell r="G34">
-            <v>300</v>
-          </cell>
-          <cell r="H34">
-            <v>0.3</v>
-          </cell>
-          <cell r="I34" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J34">
-            <v>50</v>
-          </cell>
-          <cell r="M34">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>КЖ70</v>
-          </cell>
-          <cell r="C35">
-            <v>10</v>
-          </cell>
-          <cell r="D35">
-            <v>18</v>
-          </cell>
-          <cell r="E35">
-            <v>16</v>
-          </cell>
-          <cell r="F35">
-            <v>250</v>
-          </cell>
-          <cell r="G35">
-            <v>300</v>
-          </cell>
-          <cell r="H35">
-            <v>0.3</v>
-          </cell>
-          <cell r="I35" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J35">
-            <v>50</v>
-          </cell>
-          <cell r="M35">
-            <v>0.94699999999999995</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>КЖ75</v>
-          </cell>
-          <cell r="C36">
-            <v>8</v>
-          </cell>
-          <cell r="D36">
-            <v>18</v>
-          </cell>
-          <cell r="E36">
-            <v>18</v>
-          </cell>
-          <cell r="F36">
-            <v>300</v>
-          </cell>
-          <cell r="G36">
-            <v>300</v>
-          </cell>
-          <cell r="H36">
-            <v>0.3</v>
-          </cell>
-          <cell r="I36" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J36">
-            <v>50</v>
-          </cell>
-          <cell r="M36">
-            <v>0.94699999999999995</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>КЖ80</v>
-          </cell>
-          <cell r="C37">
-            <v>8</v>
-          </cell>
-          <cell r="D37">
-            <v>18</v>
-          </cell>
-          <cell r="E37">
-            <v>18</v>
-          </cell>
-          <cell r="F37">
-            <v>300</v>
-          </cell>
-          <cell r="G37">
-            <v>300</v>
-          </cell>
-          <cell r="H37">
-            <v>0.3</v>
-          </cell>
-          <cell r="I37" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J37">
-            <v>50</v>
-          </cell>
-          <cell r="M37">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>КЖ85</v>
-          </cell>
-          <cell r="C38">
-            <v>8</v>
-          </cell>
-          <cell r="D38">
-            <v>18</v>
-          </cell>
-          <cell r="E38">
-            <v>18</v>
-          </cell>
-          <cell r="F38">
-            <v>300</v>
-          </cell>
-          <cell r="G38">
-            <v>300</v>
-          </cell>
-          <cell r="H38">
-            <v>0.3</v>
-          </cell>
-          <cell r="I38" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J38">
-            <v>50</v>
-          </cell>
-          <cell r="M38">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>КЖ90</v>
-          </cell>
-          <cell r="C39">
-            <v>8</v>
-          </cell>
-          <cell r="D39">
-            <v>18</v>
-          </cell>
-          <cell r="E39">
-            <v>18</v>
-          </cell>
-          <cell r="F39">
-            <v>300</v>
-          </cell>
-          <cell r="G39">
-            <v>300</v>
-          </cell>
-          <cell r="H39">
-            <v>0.3</v>
-          </cell>
-          <cell r="I39" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J39">
-            <v>50</v>
-          </cell>
-          <cell r="M39">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>КЖ95</v>
-          </cell>
-          <cell r="C40">
-            <v>8</v>
-          </cell>
-          <cell r="D40">
-            <v>18</v>
-          </cell>
-          <cell r="E40">
-            <v>18</v>
-          </cell>
-          <cell r="F40">
-            <v>300</v>
-          </cell>
-          <cell r="G40">
-            <v>300</v>
-          </cell>
-          <cell r="H40">
-            <v>0.3</v>
-          </cell>
-          <cell r="I40" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J40">
-            <v>44</v>
-          </cell>
-          <cell r="M40">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>КЖ100</v>
-          </cell>
-          <cell r="C41">
-            <v>8</v>
-          </cell>
-          <cell r="D41">
-            <v>18</v>
-          </cell>
-          <cell r="E41">
-            <v>18</v>
-          </cell>
-          <cell r="F41">
-            <v>300</v>
-          </cell>
-          <cell r="G41">
-            <v>300</v>
-          </cell>
-          <cell r="H41">
-            <v>0.3</v>
-          </cell>
-          <cell r="I41" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J41">
-            <v>44</v>
-          </cell>
-          <cell r="M41">
-            <v>0.94099999999999995</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>КЖ105</v>
-          </cell>
-          <cell r="C42">
-            <v>8</v>
-          </cell>
-          <cell r="D42">
-            <v>18</v>
-          </cell>
-          <cell r="E42">
-            <v>18</v>
-          </cell>
-          <cell r="F42">
-            <v>300</v>
-          </cell>
-          <cell r="G42">
-            <v>300</v>
-          </cell>
-          <cell r="H42">
-            <v>0.3</v>
-          </cell>
-          <cell r="I42" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J42">
-            <v>44</v>
-          </cell>
-          <cell r="M42">
-            <v>0.94099999999999995</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>КЖ110</v>
-          </cell>
-          <cell r="C43">
-            <v>8</v>
-          </cell>
-          <cell r="D43">
-            <v>18</v>
-          </cell>
-          <cell r="E43">
-            <v>18</v>
-          </cell>
-          <cell r="F43">
-            <v>300</v>
-          </cell>
-          <cell r="G43">
-            <v>300</v>
-          </cell>
-          <cell r="H43">
-            <v>0.3</v>
-          </cell>
-          <cell r="I43" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J43">
-            <v>44</v>
-          </cell>
-          <cell r="M43">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>КЖ115</v>
-          </cell>
-          <cell r="C44">
-            <v>8</v>
-          </cell>
-          <cell r="D44">
-            <v>18</v>
-          </cell>
-          <cell r="E44">
-            <v>18</v>
-          </cell>
-          <cell r="F44">
-            <v>300</v>
-          </cell>
-          <cell r="G44">
-            <v>300</v>
-          </cell>
-          <cell r="H44">
-            <v>0.3</v>
-          </cell>
-          <cell r="I44" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J44">
-            <v>44</v>
-          </cell>
-          <cell r="M44">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>КЖ120</v>
-          </cell>
-          <cell r="C45">
-            <v>8</v>
-          </cell>
-          <cell r="D45">
-            <v>18</v>
-          </cell>
-          <cell r="E45">
-            <v>18</v>
-          </cell>
-          <cell r="F45">
-            <v>300</v>
-          </cell>
-          <cell r="G45">
-            <v>300</v>
-          </cell>
-          <cell r="H45">
-            <v>0.3</v>
-          </cell>
-          <cell r="I45" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J45">
-            <v>44</v>
-          </cell>
-          <cell r="M45">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>КЖ125</v>
-          </cell>
-          <cell r="C46">
-            <v>8</v>
-          </cell>
-          <cell r="D46">
-            <v>18</v>
-          </cell>
-          <cell r="E46">
-            <v>18</v>
-          </cell>
-          <cell r="F46">
-            <v>300</v>
-          </cell>
-          <cell r="G46">
-            <v>300</v>
-          </cell>
-          <cell r="H46">
-            <v>0.3</v>
-          </cell>
-          <cell r="I46" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J46">
-            <v>44</v>
-          </cell>
-          <cell r="M46">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>КЖ130</v>
-          </cell>
-          <cell r="C47">
-            <v>8</v>
-          </cell>
-          <cell r="D47">
-            <v>18</v>
-          </cell>
-          <cell r="E47">
-            <v>18</v>
-          </cell>
-          <cell r="F47">
-            <v>300</v>
-          </cell>
-          <cell r="G47">
-            <v>300</v>
-          </cell>
-          <cell r="H47">
-            <v>0.3</v>
-          </cell>
-          <cell r="I47" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J47">
-            <v>44</v>
-          </cell>
-          <cell r="M47">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>КЖ135</v>
-          </cell>
-          <cell r="C48">
-            <v>8</v>
-          </cell>
-          <cell r="D48">
-            <v>18</v>
-          </cell>
-          <cell r="E48">
-            <v>18</v>
-          </cell>
-          <cell r="F48">
-            <v>300</v>
-          </cell>
-          <cell r="G48">
-            <v>300</v>
-          </cell>
-          <cell r="H48">
-            <v>0.3</v>
-          </cell>
-          <cell r="I48" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J48">
-            <v>44</v>
-          </cell>
-          <cell r="M48">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>КЖ140</v>
-          </cell>
-          <cell r="C49">
-            <v>8</v>
-          </cell>
-          <cell r="D49">
-            <v>18</v>
-          </cell>
-          <cell r="E49">
-            <v>18</v>
-          </cell>
-          <cell r="F49">
-            <v>300</v>
-          </cell>
-          <cell r="G49">
-            <v>300</v>
-          </cell>
-          <cell r="H49">
-            <v>0.3</v>
-          </cell>
-          <cell r="I49" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J49">
-            <v>44</v>
-          </cell>
-          <cell r="M49">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>КЖ145</v>
-          </cell>
-          <cell r="C50">
-            <v>8</v>
-          </cell>
-          <cell r="D50">
-            <v>18</v>
-          </cell>
-          <cell r="E50">
-            <v>18</v>
-          </cell>
-          <cell r="F50">
-            <v>300</v>
-          </cell>
-          <cell r="G50">
-            <v>300</v>
-          </cell>
-          <cell r="H50">
-            <v>0.3</v>
-          </cell>
-          <cell r="I50" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J50">
-            <v>44</v>
-          </cell>
-          <cell r="M50">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>КЖ150</v>
-          </cell>
-          <cell r="C51">
-            <v>8</v>
-          </cell>
-          <cell r="D51">
-            <v>18</v>
-          </cell>
-          <cell r="E51">
-            <v>18</v>
-          </cell>
-          <cell r="F51">
-            <v>300</v>
-          </cell>
-          <cell r="G51">
-            <v>300</v>
-          </cell>
-          <cell r="H51">
-            <v>0.3</v>
-          </cell>
-          <cell r="I51" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J51">
-            <v>44</v>
-          </cell>
-          <cell r="M51">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>З30</v>
-          </cell>
-          <cell r="C52">
-            <v>10</v>
-          </cell>
-          <cell r="D52">
-            <v>20</v>
-          </cell>
-          <cell r="E52">
-            <v>16</v>
-          </cell>
-          <cell r="F52">
-            <v>150</v>
-          </cell>
-          <cell r="G52">
-            <v>300</v>
-          </cell>
-          <cell r="H52">
-            <v>0.3</v>
-          </cell>
-          <cell r="I52" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J52">
-            <v>60</v>
-          </cell>
-          <cell r="M52">
-            <v>0.96399999999999997</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>З35</v>
-          </cell>
-          <cell r="C53">
-            <v>10</v>
-          </cell>
-          <cell r="D53">
-            <v>20</v>
-          </cell>
-          <cell r="E53">
-            <v>16</v>
-          </cell>
-          <cell r="F53">
-            <v>150</v>
-          </cell>
-          <cell r="G53">
-            <v>300</v>
-          </cell>
-          <cell r="H53">
-            <v>0.3</v>
-          </cell>
-          <cell r="I53" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J53">
-            <v>60</v>
-          </cell>
-          <cell r="M53">
-            <v>0.96399999999999997</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>З40</v>
-          </cell>
-          <cell r="C54">
-            <v>10</v>
-          </cell>
-          <cell r="D54">
-            <v>20</v>
-          </cell>
-          <cell r="E54">
-            <v>16</v>
-          </cell>
-          <cell r="F54">
-            <v>150</v>
-          </cell>
-          <cell r="G54">
-            <v>300</v>
-          </cell>
-          <cell r="H54">
-            <v>0.3</v>
-          </cell>
-          <cell r="I54" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J54">
-            <v>60</v>
-          </cell>
-          <cell r="M54">
-            <v>0.96099999999999997</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>З45</v>
-          </cell>
-          <cell r="C55">
-            <v>10</v>
-          </cell>
-          <cell r="D55">
-            <v>18</v>
-          </cell>
-          <cell r="E55">
-            <v>16</v>
-          </cell>
-          <cell r="F55">
-            <v>250</v>
-          </cell>
-          <cell r="G55">
-            <v>300</v>
-          </cell>
-          <cell r="H55">
-            <v>0.3</v>
-          </cell>
-          <cell r="I55" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J55">
-            <v>60</v>
-          </cell>
-          <cell r="M55">
-            <v>0.96099999999999997</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>З50</v>
-          </cell>
-          <cell r="C56">
-            <v>10</v>
-          </cell>
-          <cell r="D56">
-            <v>18</v>
-          </cell>
-          <cell r="E56">
-            <v>16</v>
-          </cell>
-          <cell r="F56">
-            <v>250</v>
-          </cell>
-          <cell r="G56">
-            <v>300</v>
-          </cell>
-          <cell r="H56">
-            <v>0.3</v>
-          </cell>
-          <cell r="I56" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J56">
-            <v>60</v>
-          </cell>
-          <cell r="M56">
-            <v>0.95499999999999996</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>З55</v>
-          </cell>
-          <cell r="C57">
-            <v>10</v>
-          </cell>
-          <cell r="D57">
-            <v>18</v>
-          </cell>
-          <cell r="E57">
-            <v>16</v>
-          </cell>
-          <cell r="F57">
-            <v>250</v>
-          </cell>
-          <cell r="G57">
-            <v>300</v>
-          </cell>
-          <cell r="H57">
-            <v>0.3</v>
-          </cell>
-          <cell r="I57" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J57">
-            <v>60</v>
-          </cell>
-          <cell r="M57">
-            <v>0.95499999999999996</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>З60</v>
-          </cell>
-          <cell r="C58">
-            <v>10</v>
-          </cell>
-          <cell r="D58">
-            <v>18</v>
-          </cell>
-          <cell r="E58">
-            <v>16</v>
-          </cell>
-          <cell r="F58">
-            <v>250</v>
-          </cell>
-          <cell r="G58">
-            <v>300</v>
-          </cell>
-          <cell r="H58">
-            <v>0.3</v>
-          </cell>
-          <cell r="I58" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J58">
-            <v>60</v>
-          </cell>
-          <cell r="M58">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>З65</v>
-          </cell>
-          <cell r="C59">
-            <v>10</v>
-          </cell>
-          <cell r="D59">
-            <v>18</v>
-          </cell>
-          <cell r="E59">
-            <v>16</v>
-          </cell>
-          <cell r="F59">
-            <v>250</v>
-          </cell>
-          <cell r="G59">
-            <v>300</v>
-          </cell>
-          <cell r="H59">
-            <v>0.3</v>
-          </cell>
-          <cell r="I59" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J59">
-            <v>50</v>
-          </cell>
-          <cell r="M59">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>З70</v>
-          </cell>
-          <cell r="C60">
-            <v>10</v>
-          </cell>
-          <cell r="D60">
-            <v>18</v>
-          </cell>
-          <cell r="E60">
-            <v>16</v>
-          </cell>
-          <cell r="F60">
-            <v>250</v>
-          </cell>
-          <cell r="G60">
-            <v>300</v>
-          </cell>
-          <cell r="H60">
-            <v>0.3</v>
-          </cell>
-          <cell r="I60" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J60">
-            <v>50</v>
-          </cell>
-          <cell r="M60">
-            <v>0.94699999999999995</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>З75</v>
-          </cell>
-          <cell r="C61">
-            <v>8</v>
-          </cell>
-          <cell r="D61">
-            <v>20</v>
-          </cell>
-          <cell r="E61">
-            <v>17</v>
-          </cell>
-          <cell r="F61">
-            <v>300</v>
-          </cell>
-          <cell r="G61">
-            <v>400</v>
-          </cell>
-          <cell r="H61">
-            <v>0.3</v>
-          </cell>
-          <cell r="I61" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J61">
-            <v>50</v>
-          </cell>
-          <cell r="M61">
-            <v>0.94699999999999995</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>З80</v>
-          </cell>
-          <cell r="C62">
-            <v>8</v>
-          </cell>
-          <cell r="D62">
-            <v>20</v>
-          </cell>
-          <cell r="E62">
-            <v>17</v>
-          </cell>
-          <cell r="F62">
-            <v>300</v>
-          </cell>
-          <cell r="G62">
-            <v>400</v>
-          </cell>
-          <cell r="H62">
-            <v>0.3</v>
-          </cell>
-          <cell r="I62" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J62">
-            <v>50</v>
-          </cell>
-          <cell r="M62">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>З85</v>
-          </cell>
-          <cell r="C63">
-            <v>8</v>
-          </cell>
-          <cell r="D63">
-            <v>20</v>
-          </cell>
-          <cell r="E63">
-            <v>17</v>
-          </cell>
-          <cell r="F63">
-            <v>300</v>
-          </cell>
-          <cell r="G63">
-            <v>400</v>
-          </cell>
-          <cell r="H63">
-            <v>0.3</v>
-          </cell>
-          <cell r="I63" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J63">
-            <v>50</v>
-          </cell>
-          <cell r="M63">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>З90</v>
-          </cell>
-          <cell r="C64">
-            <v>8</v>
-          </cell>
-          <cell r="D64">
-            <v>20</v>
-          </cell>
-          <cell r="E64">
-            <v>17</v>
-          </cell>
-          <cell r="F64">
-            <v>300</v>
-          </cell>
-          <cell r="G64">
-            <v>400</v>
-          </cell>
-          <cell r="H64">
-            <v>0.3</v>
-          </cell>
-          <cell r="I64" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J64">
-            <v>50</v>
-          </cell>
-          <cell r="M64">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>З95</v>
-          </cell>
-          <cell r="C65">
-            <v>8</v>
-          </cell>
-          <cell r="D65">
-            <v>20</v>
-          </cell>
-          <cell r="E65">
-            <v>17</v>
-          </cell>
-          <cell r="F65">
-            <v>300</v>
-          </cell>
-          <cell r="G65">
-            <v>400</v>
-          </cell>
-          <cell r="H65">
-            <v>0.3</v>
-          </cell>
-          <cell r="I65" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J65">
-            <v>44</v>
-          </cell>
-          <cell r="M65">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>З100</v>
-          </cell>
-          <cell r="C66">
-            <v>8</v>
-          </cell>
-          <cell r="D66">
-            <v>20</v>
-          </cell>
-          <cell r="E66">
-            <v>17</v>
-          </cell>
-          <cell r="F66">
-            <v>300</v>
-          </cell>
-          <cell r="G66">
-            <v>400</v>
-          </cell>
-          <cell r="H66">
-            <v>0.3</v>
-          </cell>
-          <cell r="I66" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J66">
-            <v>44</v>
-          </cell>
-          <cell r="M66">
-            <v>0.94199999999999995</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>З105</v>
-          </cell>
-          <cell r="C67">
-            <v>8</v>
-          </cell>
-          <cell r="D67">
-            <v>20</v>
-          </cell>
-          <cell r="E67">
-            <v>17</v>
-          </cell>
-          <cell r="F67">
-            <v>300</v>
-          </cell>
-          <cell r="G67">
-            <v>400</v>
-          </cell>
-          <cell r="H67">
-            <v>0.3</v>
-          </cell>
-          <cell r="I67" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J67">
-            <v>44</v>
-          </cell>
-          <cell r="M67">
-            <v>0.94199999999999995</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>З110</v>
-          </cell>
-          <cell r="C68">
-            <v>8</v>
-          </cell>
-          <cell r="D68">
-            <v>20</v>
-          </cell>
-          <cell r="E68">
-            <v>17</v>
-          </cell>
-          <cell r="F68">
-            <v>300</v>
-          </cell>
-          <cell r="G68">
-            <v>400</v>
-          </cell>
-          <cell r="H68">
-            <v>0.3</v>
-          </cell>
-          <cell r="I68" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J68">
-            <v>44</v>
-          </cell>
-          <cell r="M68">
-            <v>0.93600000000000005</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>З115</v>
-          </cell>
-          <cell r="C69">
-            <v>8</v>
-          </cell>
-          <cell r="D69">
-            <v>20</v>
-          </cell>
-          <cell r="E69">
-            <v>17</v>
-          </cell>
-          <cell r="F69">
-            <v>300</v>
-          </cell>
-          <cell r="G69">
-            <v>400</v>
-          </cell>
-          <cell r="H69">
-            <v>0.3</v>
-          </cell>
-          <cell r="I69" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J69">
-            <v>44</v>
-          </cell>
-          <cell r="M69">
-            <v>0.93600000000000005</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>З120</v>
-          </cell>
-          <cell r="C70">
-            <v>8</v>
-          </cell>
-          <cell r="D70">
-            <v>20</v>
-          </cell>
-          <cell r="E70">
-            <v>17</v>
-          </cell>
-          <cell r="F70">
-            <v>300</v>
-          </cell>
-          <cell r="G70">
-            <v>400</v>
-          </cell>
-          <cell r="H70">
-            <v>0.3</v>
-          </cell>
-          <cell r="I70" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J70">
-            <v>44</v>
-          </cell>
-          <cell r="M70">
-            <v>0.93600000000000005</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>З125</v>
-          </cell>
-          <cell r="C71">
-            <v>8</v>
-          </cell>
-          <cell r="D71">
-            <v>20</v>
-          </cell>
-          <cell r="E71">
-            <v>17</v>
-          </cell>
-          <cell r="F71">
-            <v>300</v>
-          </cell>
-          <cell r="G71">
-            <v>400</v>
-          </cell>
-          <cell r="H71">
-            <v>0.3</v>
-          </cell>
-          <cell r="I71" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J71">
-            <v>44</v>
-          </cell>
-          <cell r="M71">
-            <v>0.93600000000000005</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>З130</v>
-          </cell>
-          <cell r="C72">
-            <v>8</v>
-          </cell>
-          <cell r="D72">
-            <v>20</v>
-          </cell>
-          <cell r="E72">
-            <v>17</v>
-          </cell>
-          <cell r="F72">
-            <v>300</v>
-          </cell>
-          <cell r="G72">
-            <v>400</v>
-          </cell>
-          <cell r="H72">
-            <v>0.3</v>
-          </cell>
-          <cell r="I72" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J72">
-            <v>44</v>
-          </cell>
-          <cell r="M72">
-            <v>0.93600000000000005</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>З135</v>
-          </cell>
-          <cell r="C73">
-            <v>8</v>
-          </cell>
-          <cell r="D73">
-            <v>20</v>
-          </cell>
-          <cell r="E73">
-            <v>17</v>
-          </cell>
-          <cell r="F73">
-            <v>300</v>
-          </cell>
-          <cell r="G73">
-            <v>400</v>
-          </cell>
-          <cell r="H73">
-            <v>0.3</v>
-          </cell>
-          <cell r="I73" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J73">
-            <v>44</v>
-          </cell>
-          <cell r="M73">
-            <v>0.93600000000000005</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>З140</v>
-          </cell>
-          <cell r="C74">
-            <v>8</v>
-          </cell>
-          <cell r="D74">
-            <v>20</v>
-          </cell>
-          <cell r="E74">
-            <v>17</v>
-          </cell>
-          <cell r="F74">
-            <v>300</v>
-          </cell>
-          <cell r="G74">
-            <v>400</v>
-          </cell>
-          <cell r="H74">
-            <v>0.3</v>
-          </cell>
-          <cell r="I74" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J74">
-            <v>44</v>
-          </cell>
-          <cell r="M74">
-            <v>0.93600000000000005</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>З145</v>
-          </cell>
-          <cell r="C75">
-            <v>8</v>
-          </cell>
-          <cell r="D75">
-            <v>20</v>
-          </cell>
-          <cell r="E75">
-            <v>17</v>
-          </cell>
-          <cell r="F75">
-            <v>300</v>
-          </cell>
-          <cell r="G75">
-            <v>400</v>
-          </cell>
-          <cell r="H75">
-            <v>0.3</v>
-          </cell>
-          <cell r="I75" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J75">
-            <v>44</v>
-          </cell>
-          <cell r="M75">
-            <v>0.93600000000000005</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>З150</v>
-          </cell>
-          <cell r="C76">
-            <v>8</v>
-          </cell>
-          <cell r="D76">
-            <v>20</v>
-          </cell>
-          <cell r="E76">
-            <v>17</v>
-          </cell>
-          <cell r="F76">
-            <v>300</v>
-          </cell>
-          <cell r="G76">
-            <v>400</v>
-          </cell>
-          <cell r="H76">
-            <v>0.3</v>
-          </cell>
-          <cell r="I76" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J76">
-            <v>44</v>
-          </cell>
-          <cell r="M76">
-            <v>0.93600000000000005</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>МЖ30</v>
-          </cell>
-          <cell r="C77">
-            <v>10</v>
-          </cell>
-          <cell r="D77">
-            <v>21</v>
-          </cell>
-          <cell r="E77">
-            <v>18</v>
-          </cell>
-          <cell r="F77">
-            <v>250</v>
-          </cell>
-          <cell r="G77">
-            <v>450</v>
-          </cell>
-          <cell r="H77">
-            <v>0.3</v>
-          </cell>
-          <cell r="I77" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J77">
-            <v>60</v>
-          </cell>
-          <cell r="M77">
-            <v>0.96399999999999997</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>МЖ35</v>
-          </cell>
-          <cell r="C78">
-            <v>10</v>
-          </cell>
-          <cell r="D78">
-            <v>21</v>
-          </cell>
-          <cell r="E78">
-            <v>18</v>
-          </cell>
-          <cell r="F78">
-            <v>250</v>
-          </cell>
-          <cell r="G78">
-            <v>450</v>
-          </cell>
-          <cell r="H78">
-            <v>0.3</v>
-          </cell>
-          <cell r="I78" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J78">
-            <v>60</v>
-          </cell>
-          <cell r="M78">
-            <v>0.96399999999999997</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>МЖ40</v>
-          </cell>
-          <cell r="C79">
-            <v>10</v>
-          </cell>
-          <cell r="D79">
-            <v>21</v>
-          </cell>
-          <cell r="E79">
-            <v>18</v>
-          </cell>
-          <cell r="F79">
-            <v>250</v>
-          </cell>
-          <cell r="G79">
-            <v>450</v>
-          </cell>
-          <cell r="H79">
-            <v>0.3</v>
-          </cell>
-          <cell r="I79" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J79">
-            <v>60</v>
-          </cell>
-          <cell r="M79">
-            <v>0.96099999999999997</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>МЖ45</v>
-          </cell>
-          <cell r="C80">
-            <v>10</v>
-          </cell>
-          <cell r="D80">
-            <v>19</v>
-          </cell>
-          <cell r="E80">
-            <v>19</v>
-          </cell>
-          <cell r="F80">
-            <v>400</v>
-          </cell>
-          <cell r="G80">
-            <v>500</v>
-          </cell>
-          <cell r="H80">
-            <v>0.3</v>
-          </cell>
-          <cell r="I80" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J80">
-            <v>60</v>
-          </cell>
-          <cell r="M80">
-            <v>0.96099999999999997</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>МЖ50</v>
-          </cell>
-          <cell r="C81">
-            <v>10</v>
-          </cell>
-          <cell r="D81">
-            <v>19</v>
-          </cell>
-          <cell r="E81">
-            <v>19</v>
-          </cell>
-          <cell r="F81">
-            <v>400</v>
-          </cell>
-          <cell r="G81">
-            <v>500</v>
-          </cell>
-          <cell r="H81">
-            <v>0.3</v>
-          </cell>
-          <cell r="I81" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J81">
-            <v>60</v>
-          </cell>
-          <cell r="M81">
-            <v>0.95499999999999996</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>МЖ55</v>
-          </cell>
-          <cell r="C82">
-            <v>10</v>
-          </cell>
-          <cell r="D82">
-            <v>19</v>
-          </cell>
-          <cell r="E82">
-            <v>19</v>
-          </cell>
-          <cell r="F82">
-            <v>400</v>
-          </cell>
-          <cell r="G82">
-            <v>500</v>
-          </cell>
-          <cell r="H82">
-            <v>0.3</v>
-          </cell>
-          <cell r="I82" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J82">
-            <v>60</v>
-          </cell>
-          <cell r="M82">
-            <v>0.95499999999999996</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>МЖ60</v>
-          </cell>
-          <cell r="C83">
-            <v>10</v>
-          </cell>
-          <cell r="D83">
-            <v>19</v>
-          </cell>
-          <cell r="E83">
-            <v>19</v>
-          </cell>
-          <cell r="F83">
-            <v>400</v>
-          </cell>
-          <cell r="G83">
-            <v>500</v>
-          </cell>
-          <cell r="H83">
-            <v>0.3</v>
-          </cell>
-          <cell r="I83" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J83">
-            <v>60</v>
-          </cell>
-          <cell r="M83">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>МЖ65</v>
-          </cell>
-          <cell r="C84">
-            <v>10</v>
-          </cell>
-          <cell r="D84">
-            <v>19</v>
-          </cell>
-          <cell r="E84">
-            <v>19</v>
-          </cell>
-          <cell r="F84">
-            <v>400</v>
-          </cell>
-          <cell r="G84">
-            <v>500</v>
-          </cell>
-          <cell r="H84">
-            <v>0.3</v>
-          </cell>
-          <cell r="I84" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J84">
-            <v>50</v>
-          </cell>
-          <cell r="M84">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>МЖ70</v>
-          </cell>
-          <cell r="C85">
-            <v>10</v>
-          </cell>
-          <cell r="D85">
-            <v>19</v>
-          </cell>
-          <cell r="E85">
-            <v>19</v>
-          </cell>
-          <cell r="F85">
-            <v>400</v>
-          </cell>
-          <cell r="G85">
-            <v>500</v>
-          </cell>
-          <cell r="H85">
-            <v>0.3</v>
-          </cell>
-          <cell r="I85" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J85">
-            <v>50</v>
-          </cell>
-          <cell r="M85">
-            <v>0.94699999999999995</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>МЖ75</v>
-          </cell>
-          <cell r="C86">
-            <v>8</v>
-          </cell>
-          <cell r="D86">
-            <v>21</v>
-          </cell>
-          <cell r="E86">
-            <v>20</v>
-          </cell>
-          <cell r="F86">
-            <v>500</v>
-          </cell>
-          <cell r="G86">
-            <v>600</v>
-          </cell>
-          <cell r="H86">
-            <v>0.3</v>
-          </cell>
-          <cell r="I86" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J86">
-            <v>50</v>
-          </cell>
-          <cell r="M86">
-            <v>0.94699999999999995</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>МЖ80</v>
-          </cell>
-          <cell r="C87">
-            <v>8</v>
-          </cell>
-          <cell r="D87">
-            <v>21</v>
-          </cell>
-          <cell r="E87">
-            <v>20</v>
-          </cell>
-          <cell r="F87">
-            <v>500</v>
-          </cell>
-          <cell r="G87">
-            <v>600</v>
-          </cell>
-          <cell r="H87">
-            <v>0.3</v>
-          </cell>
-          <cell r="I87" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J87">
-            <v>50</v>
-          </cell>
-          <cell r="M87">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>МЖ85</v>
-          </cell>
-          <cell r="C88">
-            <v>8</v>
-          </cell>
-          <cell r="D88">
-            <v>21</v>
-          </cell>
-          <cell r="E88">
-            <v>20</v>
-          </cell>
-          <cell r="F88">
-            <v>500</v>
-          </cell>
-          <cell r="G88">
-            <v>600</v>
-          </cell>
-          <cell r="H88">
-            <v>0.3</v>
-          </cell>
-          <cell r="I88" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J88">
-            <v>50</v>
-          </cell>
-          <cell r="M88">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v>МЖ90</v>
-          </cell>
-          <cell r="C89">
-            <v>8</v>
-          </cell>
-          <cell r="D89">
-            <v>21</v>
-          </cell>
-          <cell r="E89">
-            <v>20</v>
-          </cell>
-          <cell r="F89">
-            <v>500</v>
-          </cell>
-          <cell r="G89">
-            <v>600</v>
-          </cell>
-          <cell r="H89">
-            <v>0.3</v>
-          </cell>
-          <cell r="I89" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J89">
-            <v>50</v>
-          </cell>
-          <cell r="M89">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v>МЖ95</v>
-          </cell>
-          <cell r="C90">
-            <v>8</v>
-          </cell>
-          <cell r="D90">
-            <v>21</v>
-          </cell>
-          <cell r="E90">
-            <v>20</v>
-          </cell>
-          <cell r="F90">
-            <v>500</v>
-          </cell>
-          <cell r="G90">
-            <v>600</v>
-          </cell>
-          <cell r="H90">
-            <v>0.3</v>
-          </cell>
-          <cell r="I90" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J90">
-            <v>44</v>
-          </cell>
-          <cell r="M90">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91" t="str">
-            <v>МЖ100</v>
-          </cell>
-          <cell r="C91">
-            <v>8</v>
-          </cell>
-          <cell r="D91">
-            <v>21</v>
-          </cell>
-          <cell r="E91">
-            <v>20</v>
-          </cell>
-          <cell r="F91">
-            <v>500</v>
-          </cell>
-          <cell r="G91">
-            <v>600</v>
-          </cell>
-          <cell r="H91">
-            <v>0.3</v>
-          </cell>
-          <cell r="I91" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J91">
-            <v>44</v>
-          </cell>
-          <cell r="M91">
-            <v>0.94199999999999995</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92" t="str">
-            <v>МЖ105</v>
-          </cell>
-          <cell r="C92">
-            <v>8</v>
-          </cell>
-          <cell r="D92">
-            <v>21</v>
-          </cell>
-          <cell r="E92">
-            <v>20</v>
-          </cell>
-          <cell r="F92">
-            <v>500</v>
-          </cell>
-          <cell r="G92">
-            <v>600</v>
-          </cell>
-          <cell r="H92">
-            <v>0.3</v>
-          </cell>
-          <cell r="I92" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J92">
-            <v>44</v>
-          </cell>
-          <cell r="M92">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93" t="str">
-            <v>МЖ110</v>
-          </cell>
-          <cell r="C93">
-            <v>8</v>
-          </cell>
-          <cell r="D93">
-            <v>21</v>
-          </cell>
-          <cell r="E93">
-            <v>20</v>
-          </cell>
-          <cell r="F93">
-            <v>500</v>
-          </cell>
-          <cell r="G93">
-            <v>600</v>
-          </cell>
-          <cell r="H93">
-            <v>0.3</v>
-          </cell>
-          <cell r="I93" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J93">
-            <v>44</v>
-          </cell>
-          <cell r="M93">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94" t="str">
-            <v>МЖ115</v>
-          </cell>
-          <cell r="C94">
-            <v>8</v>
-          </cell>
-          <cell r="D94">
-            <v>21</v>
-          </cell>
-          <cell r="E94">
-            <v>20</v>
-          </cell>
-          <cell r="F94">
-            <v>500</v>
-          </cell>
-          <cell r="G94">
-            <v>600</v>
-          </cell>
-          <cell r="H94">
-            <v>0.3</v>
-          </cell>
-          <cell r="I94" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J94">
-            <v>44</v>
-          </cell>
-          <cell r="M94">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95" t="str">
-            <v>МЖ120</v>
-          </cell>
-          <cell r="C95">
-            <v>8</v>
-          </cell>
-          <cell r="D95">
-            <v>21</v>
-          </cell>
-          <cell r="E95">
-            <v>20</v>
-          </cell>
-          <cell r="F95">
-            <v>500</v>
-          </cell>
-          <cell r="G95">
-            <v>600</v>
-          </cell>
-          <cell r="H95">
-            <v>0.3</v>
-          </cell>
-          <cell r="I95" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J95">
-            <v>44</v>
-          </cell>
-          <cell r="M95">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>МЖ125</v>
-          </cell>
-          <cell r="C96">
-            <v>8</v>
-          </cell>
-          <cell r="D96">
-            <v>21</v>
-          </cell>
-          <cell r="E96">
-            <v>20</v>
-          </cell>
-          <cell r="F96">
-            <v>500</v>
-          </cell>
-          <cell r="G96">
-            <v>600</v>
-          </cell>
-          <cell r="H96">
-            <v>0.3</v>
-          </cell>
-          <cell r="I96" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J96">
-            <v>44</v>
-          </cell>
-          <cell r="M96">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>МЖ130</v>
-          </cell>
-          <cell r="C97">
-            <v>8</v>
-          </cell>
-          <cell r="D97">
-            <v>21</v>
-          </cell>
-          <cell r="E97">
-            <v>20</v>
-          </cell>
-          <cell r="F97">
-            <v>500</v>
-          </cell>
-          <cell r="G97">
-            <v>600</v>
-          </cell>
-          <cell r="H97">
-            <v>0.3</v>
-          </cell>
-          <cell r="I97" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J97">
-            <v>44</v>
-          </cell>
-          <cell r="M97">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v>МЖ135</v>
-          </cell>
-          <cell r="C98">
-            <v>8</v>
-          </cell>
-          <cell r="D98">
-            <v>21</v>
-          </cell>
-          <cell r="E98">
-            <v>20</v>
-          </cell>
-          <cell r="F98">
-            <v>500</v>
-          </cell>
-          <cell r="G98">
-            <v>600</v>
-          </cell>
-          <cell r="H98">
-            <v>0.3</v>
-          </cell>
-          <cell r="I98" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J98">
-            <v>44</v>
-          </cell>
-          <cell r="M98">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>МЖ140</v>
-          </cell>
-          <cell r="C99">
-            <v>8</v>
-          </cell>
-          <cell r="D99">
-            <v>21</v>
-          </cell>
-          <cell r="E99">
-            <v>20</v>
-          </cell>
-          <cell r="F99">
-            <v>500</v>
-          </cell>
-          <cell r="G99">
-            <v>600</v>
-          </cell>
-          <cell r="H99">
-            <v>0.3</v>
-          </cell>
-          <cell r="I99" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J99">
-            <v>44</v>
-          </cell>
-          <cell r="M99">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>МЖ145</v>
-          </cell>
-          <cell r="C100">
-            <v>8</v>
-          </cell>
-          <cell r="D100">
-            <v>21</v>
-          </cell>
-          <cell r="E100">
-            <v>20</v>
-          </cell>
-          <cell r="F100">
-            <v>500</v>
-          </cell>
-          <cell r="G100">
-            <v>600</v>
-          </cell>
-          <cell r="H100">
-            <v>0.3</v>
-          </cell>
-          <cell r="I100" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J100">
-            <v>44</v>
-          </cell>
-          <cell r="M100">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>МЖ150</v>
-          </cell>
-          <cell r="C101">
-            <v>8</v>
-          </cell>
-          <cell r="D101">
-            <v>21</v>
-          </cell>
-          <cell r="E101">
-            <v>20</v>
-          </cell>
-          <cell r="F101">
-            <v>500</v>
-          </cell>
-          <cell r="G101">
-            <v>600</v>
-          </cell>
-          <cell r="H101">
-            <v>0.3</v>
-          </cell>
-          <cell r="I101" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J101">
-            <v>44</v>
-          </cell>
-          <cell r="M101">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>СМС30</v>
-          </cell>
-          <cell r="C102">
-            <v>10</v>
-          </cell>
-          <cell r="D102">
-            <v>25</v>
-          </cell>
-          <cell r="E102">
-            <v>22</v>
-          </cell>
-          <cell r="F102">
-            <v>400</v>
-          </cell>
-          <cell r="G102">
-            <v>400</v>
-          </cell>
-          <cell r="H102">
-            <v>0.3</v>
-          </cell>
-          <cell r="I102" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J102">
-            <v>60</v>
-          </cell>
-          <cell r="M102">
-            <v>0.96399999999999997</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103" t="str">
-            <v>СМС35</v>
-          </cell>
-          <cell r="C103">
-            <v>10</v>
-          </cell>
-          <cell r="D103">
-            <v>25</v>
-          </cell>
-          <cell r="E103">
-            <v>22</v>
-          </cell>
-          <cell r="F103">
-            <v>400</v>
-          </cell>
-          <cell r="G103">
-            <v>400</v>
-          </cell>
-          <cell r="H103">
-            <v>0.3</v>
-          </cell>
-          <cell r="I103" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J103">
-            <v>60</v>
-          </cell>
-          <cell r="M103">
-            <v>0.96399999999999997</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104" t="str">
-            <v>СМС40</v>
-          </cell>
-          <cell r="C104">
-            <v>10</v>
-          </cell>
-          <cell r="D104">
-            <v>25</v>
-          </cell>
-          <cell r="E104">
-            <v>22</v>
-          </cell>
-          <cell r="F104">
-            <v>400</v>
-          </cell>
-          <cell r="G104">
-            <v>400</v>
-          </cell>
-          <cell r="H104">
-            <v>0.3</v>
-          </cell>
-          <cell r="I104" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J104">
-            <v>60</v>
-          </cell>
-          <cell r="M104">
-            <v>0.96099999999999997</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105" t="str">
-            <v>СМС45</v>
-          </cell>
-          <cell r="C105">
-            <v>10</v>
-          </cell>
-          <cell r="D105">
-            <v>25</v>
-          </cell>
-          <cell r="E105">
-            <v>22</v>
-          </cell>
-          <cell r="F105">
-            <v>500</v>
-          </cell>
-          <cell r="G105">
-            <v>500</v>
-          </cell>
-          <cell r="H105">
-            <v>0.3</v>
-          </cell>
-          <cell r="I105" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J105">
-            <v>60</v>
-          </cell>
-          <cell r="M105">
-            <v>0.96099999999999997</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106" t="str">
-            <v>СМС50</v>
-          </cell>
-          <cell r="C106">
-            <v>10</v>
-          </cell>
-          <cell r="D106">
-            <v>25</v>
-          </cell>
-          <cell r="E106">
-            <v>22</v>
-          </cell>
-          <cell r="F106">
-            <v>500</v>
-          </cell>
-          <cell r="G106">
-            <v>500</v>
-          </cell>
-          <cell r="H106">
-            <v>0.3</v>
-          </cell>
-          <cell r="I106" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J106">
-            <v>60</v>
-          </cell>
-          <cell r="M106">
-            <v>0.95499999999999996</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>СМС55</v>
-          </cell>
-          <cell r="C107">
-            <v>10</v>
-          </cell>
-          <cell r="D107">
-            <v>25</v>
-          </cell>
-          <cell r="E107">
-            <v>22</v>
-          </cell>
-          <cell r="F107">
-            <v>500</v>
-          </cell>
-          <cell r="G107">
-            <v>500</v>
-          </cell>
-          <cell r="H107">
-            <v>0.3</v>
-          </cell>
-          <cell r="I107" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J107">
-            <v>60</v>
-          </cell>
-          <cell r="M107">
-            <v>0.95499999999999996</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>СМС60</v>
-          </cell>
-          <cell r="C108">
-            <v>10</v>
-          </cell>
-          <cell r="D108">
-            <v>25</v>
-          </cell>
-          <cell r="E108">
-            <v>22</v>
-          </cell>
-          <cell r="F108">
-            <v>500</v>
-          </cell>
-          <cell r="G108">
-            <v>500</v>
-          </cell>
-          <cell r="H108">
-            <v>0.3</v>
-          </cell>
-          <cell r="I108" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J108">
-            <v>60</v>
-          </cell>
-          <cell r="M108">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109" t="str">
-            <v>СМС65</v>
-          </cell>
-          <cell r="C109">
-            <v>10</v>
-          </cell>
-          <cell r="D109">
-            <v>25</v>
-          </cell>
-          <cell r="E109">
-            <v>22</v>
-          </cell>
-          <cell r="F109">
-            <v>500</v>
-          </cell>
-          <cell r="G109">
-            <v>500</v>
-          </cell>
-          <cell r="H109">
-            <v>0.3</v>
-          </cell>
-          <cell r="I109" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J109">
-            <v>50</v>
-          </cell>
-          <cell r="M109">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>СМС70</v>
-          </cell>
-          <cell r="C110">
-            <v>10</v>
-          </cell>
-          <cell r="D110">
-            <v>25</v>
-          </cell>
-          <cell r="E110">
-            <v>22</v>
-          </cell>
-          <cell r="F110">
-            <v>500</v>
-          </cell>
-          <cell r="G110">
-            <v>500</v>
-          </cell>
-          <cell r="H110">
-            <v>0.3</v>
-          </cell>
-          <cell r="I110" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J110">
-            <v>50</v>
-          </cell>
-          <cell r="M110">
-            <v>0.94699999999999995</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111" t="str">
-            <v>СМС75</v>
-          </cell>
-          <cell r="C111">
-            <v>8</v>
-          </cell>
-          <cell r="D111">
-            <v>25</v>
-          </cell>
-          <cell r="E111">
-            <v>22</v>
-          </cell>
-          <cell r="F111">
-            <v>500</v>
-          </cell>
-          <cell r="G111">
-            <v>500</v>
-          </cell>
-          <cell r="H111">
-            <v>0.3</v>
-          </cell>
-          <cell r="I111" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J111">
-            <v>50</v>
-          </cell>
-          <cell r="M111">
-            <v>0.94699999999999995</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112" t="str">
-            <v>СМС80</v>
-          </cell>
-          <cell r="C112">
-            <v>8</v>
-          </cell>
-          <cell r="D112">
-            <v>25</v>
-          </cell>
-          <cell r="E112">
-            <v>22</v>
-          </cell>
-          <cell r="F112">
-            <v>500</v>
-          </cell>
-          <cell r="G112">
-            <v>500</v>
-          </cell>
-          <cell r="H112">
-            <v>0.3</v>
-          </cell>
-          <cell r="I112" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J112">
-            <v>50</v>
-          </cell>
-          <cell r="M112">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
-            <v>СМС85</v>
-          </cell>
-          <cell r="C113">
-            <v>8</v>
-          </cell>
-          <cell r="D113">
-            <v>25</v>
-          </cell>
-          <cell r="E113">
-            <v>22</v>
-          </cell>
-          <cell r="F113">
-            <v>500</v>
-          </cell>
-          <cell r="G113">
-            <v>500</v>
-          </cell>
-          <cell r="H113">
-            <v>0.3</v>
-          </cell>
-          <cell r="I113" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J113">
-            <v>50</v>
-          </cell>
-          <cell r="M113">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>СМС90</v>
-          </cell>
-          <cell r="C114">
-            <v>8</v>
-          </cell>
-          <cell r="D114">
-            <v>25</v>
-          </cell>
-          <cell r="E114">
-            <v>22</v>
-          </cell>
-          <cell r="F114">
-            <v>500</v>
-          </cell>
-          <cell r="G114">
-            <v>500</v>
-          </cell>
-          <cell r="H114">
-            <v>0.3</v>
-          </cell>
-          <cell r="I114" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J114">
-            <v>50</v>
-          </cell>
-          <cell r="M114">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
-            <v>СМС95</v>
-          </cell>
-          <cell r="C115">
-            <v>8</v>
-          </cell>
-          <cell r="D115">
-            <v>25</v>
-          </cell>
-          <cell r="E115">
-            <v>22</v>
-          </cell>
-          <cell r="F115">
-            <v>500</v>
-          </cell>
-          <cell r="G115">
-            <v>500</v>
-          </cell>
-          <cell r="H115">
-            <v>0.3</v>
-          </cell>
-          <cell r="I115" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J115">
-            <v>44</v>
-          </cell>
-          <cell r="M115">
-            <v>0.94399999999999995</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>СМС100</v>
-          </cell>
-          <cell r="C116">
-            <v>8</v>
-          </cell>
-          <cell r="D116">
-            <v>25</v>
-          </cell>
-          <cell r="E116">
-            <v>22</v>
-          </cell>
-          <cell r="F116">
-            <v>500</v>
-          </cell>
-          <cell r="G116">
-            <v>500</v>
-          </cell>
-          <cell r="H116">
-            <v>0.3</v>
-          </cell>
-          <cell r="I116" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J116">
-            <v>44</v>
-          </cell>
-          <cell r="M116">
-            <v>0.94199999999999995</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>СМС105</v>
-          </cell>
-          <cell r="C117">
-            <v>8</v>
-          </cell>
-          <cell r="D117">
-            <v>25</v>
-          </cell>
-          <cell r="E117">
-            <v>22</v>
-          </cell>
-          <cell r="F117">
-            <v>500</v>
-          </cell>
-          <cell r="G117">
-            <v>500</v>
-          </cell>
-          <cell r="H117">
-            <v>0.3</v>
-          </cell>
-          <cell r="I117" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J117">
-            <v>44</v>
-          </cell>
-          <cell r="M117">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>СМС110</v>
-          </cell>
-          <cell r="C118">
-            <v>8</v>
-          </cell>
-          <cell r="D118">
-            <v>25</v>
-          </cell>
-          <cell r="E118">
-            <v>22</v>
-          </cell>
-          <cell r="F118">
-            <v>500</v>
-          </cell>
-          <cell r="G118">
-            <v>500</v>
-          </cell>
-          <cell r="H118">
-            <v>0.3</v>
-          </cell>
-          <cell r="I118" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J118">
-            <v>44</v>
-          </cell>
-          <cell r="M118">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119" t="str">
-            <v>СМС115</v>
-          </cell>
-          <cell r="C119">
-            <v>8</v>
-          </cell>
-          <cell r="D119">
-            <v>25</v>
-          </cell>
-          <cell r="E119">
-            <v>22</v>
-          </cell>
-          <cell r="F119">
-            <v>500</v>
-          </cell>
-          <cell r="G119">
-            <v>500</v>
-          </cell>
-          <cell r="H119">
-            <v>0.3</v>
-          </cell>
-          <cell r="I119" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J119">
-            <v>44</v>
-          </cell>
-          <cell r="M119">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120" t="str">
-            <v>СМС120</v>
-          </cell>
-          <cell r="C120">
-            <v>8</v>
-          </cell>
-          <cell r="D120">
-            <v>25</v>
-          </cell>
-          <cell r="E120">
-            <v>22</v>
-          </cell>
-          <cell r="F120">
-            <v>500</v>
-          </cell>
-          <cell r="G120">
-            <v>500</v>
-          </cell>
-          <cell r="H120">
-            <v>0.3</v>
-          </cell>
-          <cell r="I120" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J120">
-            <v>44</v>
-          </cell>
-          <cell r="M120">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
-            <v>СМС125</v>
-          </cell>
-          <cell r="C121">
-            <v>8</v>
-          </cell>
-          <cell r="D121">
-            <v>25</v>
-          </cell>
-          <cell r="E121">
-            <v>22</v>
-          </cell>
-          <cell r="F121">
-            <v>500</v>
-          </cell>
-          <cell r="G121">
-            <v>500</v>
-          </cell>
-          <cell r="H121">
-            <v>0.3</v>
-          </cell>
-          <cell r="I121" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J121">
-            <v>44</v>
-          </cell>
-          <cell r="M121">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
-            <v>СМС130</v>
-          </cell>
-          <cell r="C122">
-            <v>8</v>
-          </cell>
-          <cell r="D122">
-            <v>25</v>
-          </cell>
-          <cell r="E122">
-            <v>22</v>
-          </cell>
-          <cell r="F122">
-            <v>500</v>
-          </cell>
-          <cell r="G122">
-            <v>500</v>
-          </cell>
-          <cell r="H122">
-            <v>0.3</v>
-          </cell>
-          <cell r="I122" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J122">
-            <v>44</v>
-          </cell>
-          <cell r="M122">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
-            <v>СМС135</v>
-          </cell>
-          <cell r="C123">
-            <v>8</v>
-          </cell>
-          <cell r="D123">
-            <v>25</v>
-          </cell>
-          <cell r="E123">
-            <v>22</v>
-          </cell>
-          <cell r="F123">
-            <v>500</v>
-          </cell>
-          <cell r="G123">
-            <v>500</v>
-          </cell>
-          <cell r="H123">
-            <v>0.3</v>
-          </cell>
-          <cell r="I123" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J123">
-            <v>44</v>
-          </cell>
-          <cell r="M123">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>СМС140</v>
-          </cell>
-          <cell r="C124">
-            <v>8</v>
-          </cell>
-          <cell r="D124">
-            <v>25</v>
-          </cell>
-          <cell r="E124">
-            <v>22</v>
-          </cell>
-          <cell r="F124">
-            <v>500</v>
-          </cell>
-          <cell r="G124">
-            <v>500</v>
-          </cell>
-          <cell r="H124">
-            <v>0.3</v>
-          </cell>
-          <cell r="I124" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J124">
-            <v>44</v>
-          </cell>
-          <cell r="M124">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
-            <v>СМС145</v>
-          </cell>
-          <cell r="C125">
-            <v>8</v>
-          </cell>
-          <cell r="D125">
-            <v>25</v>
-          </cell>
-          <cell r="E125">
-            <v>22</v>
-          </cell>
-          <cell r="F125">
-            <v>500</v>
-          </cell>
-          <cell r="G125">
-            <v>500</v>
-          </cell>
-          <cell r="H125">
-            <v>0.3</v>
-          </cell>
-          <cell r="I125" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J125">
-            <v>44</v>
-          </cell>
-          <cell r="M125">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
-            <v>СМС150</v>
-          </cell>
-          <cell r="C126">
-            <v>8</v>
-          </cell>
-          <cell r="D126">
-            <v>25</v>
-          </cell>
-          <cell r="E126">
-            <v>22</v>
-          </cell>
-          <cell r="F126">
-            <v>500</v>
-          </cell>
-          <cell r="G126">
-            <v>500</v>
-          </cell>
-          <cell r="H126">
-            <v>0.3</v>
-          </cell>
-          <cell r="I126" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J126">
-            <v>44</v>
-          </cell>
-          <cell r="M126">
-            <v>0.93899999999999995</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127" t="str">
-            <v>ПП40</v>
-          </cell>
-          <cell r="C127">
-            <v>10</v>
-          </cell>
-          <cell r="D127">
-            <v>33</v>
-          </cell>
-          <cell r="E127">
-            <v>30</v>
-          </cell>
-          <cell r="F127">
-            <v>500</v>
-          </cell>
-          <cell r="G127">
-            <v>600</v>
-          </cell>
-          <cell r="H127" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I127" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128" t="str">
-            <v>ПП45</v>
-          </cell>
-          <cell r="C128">
-            <v>10</v>
-          </cell>
-          <cell r="D128">
-            <v>32</v>
-          </cell>
-          <cell r="E128">
-            <v>30</v>
-          </cell>
-          <cell r="F128">
-            <v>500</v>
-          </cell>
-          <cell r="G128">
-            <v>650</v>
-          </cell>
-          <cell r="H128" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I128" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129" t="str">
-            <v>ПП50</v>
-          </cell>
-          <cell r="C129">
-            <v>10</v>
-          </cell>
-          <cell r="D129">
-            <v>32</v>
-          </cell>
-          <cell r="E129">
-            <v>30</v>
-          </cell>
-          <cell r="F129">
-            <v>500</v>
-          </cell>
-          <cell r="G129">
-            <v>650</v>
-          </cell>
-          <cell r="H129" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I129" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>ПП55</v>
-          </cell>
-          <cell r="C130">
-            <v>10</v>
-          </cell>
-          <cell r="D130">
-            <v>32</v>
-          </cell>
-          <cell r="E130">
-            <v>30</v>
-          </cell>
-          <cell r="F130">
-            <v>500</v>
-          </cell>
-          <cell r="G130">
-            <v>650</v>
-          </cell>
-          <cell r="H130" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I130" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131" t="str">
-            <v>ПП60</v>
-          </cell>
-          <cell r="C131">
-            <v>10</v>
-          </cell>
-          <cell r="D131">
-            <v>32</v>
-          </cell>
-          <cell r="E131">
-            <v>30</v>
-          </cell>
-          <cell r="F131">
-            <v>500</v>
-          </cell>
-          <cell r="G131">
-            <v>650</v>
-          </cell>
-          <cell r="H131" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I131" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132" t="str">
-            <v>ПП65</v>
-          </cell>
-          <cell r="C132">
-            <v>10</v>
-          </cell>
-          <cell r="D132">
-            <v>32</v>
-          </cell>
-          <cell r="E132">
-            <v>30</v>
-          </cell>
-          <cell r="F132">
-            <v>500</v>
-          </cell>
-          <cell r="G132">
-            <v>650</v>
-          </cell>
-          <cell r="H132" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I132" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133" t="str">
-            <v>ПП70</v>
-          </cell>
-          <cell r="C133">
-            <v>10</v>
-          </cell>
-          <cell r="D133">
-            <v>32</v>
-          </cell>
-          <cell r="E133">
-            <v>30</v>
-          </cell>
-          <cell r="F133">
-            <v>500</v>
-          </cell>
-          <cell r="G133">
-            <v>650</v>
-          </cell>
-          <cell r="H133" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I133" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134" t="str">
-            <v>ПП75</v>
-          </cell>
-          <cell r="C134">
-            <v>10</v>
-          </cell>
-          <cell r="D134">
-            <v>31</v>
-          </cell>
-          <cell r="E134">
-            <v>30</v>
-          </cell>
-          <cell r="F134">
-            <v>650</v>
-          </cell>
-          <cell r="G134">
-            <v>700</v>
-          </cell>
-          <cell r="H134" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I134" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135" t="str">
-            <v>ПП80</v>
-          </cell>
-          <cell r="C135">
-            <v>10</v>
-          </cell>
-          <cell r="D135">
-            <v>31</v>
-          </cell>
-          <cell r="E135">
-            <v>30</v>
-          </cell>
-          <cell r="F135">
-            <v>650</v>
-          </cell>
-          <cell r="G135">
-            <v>700</v>
-          </cell>
-          <cell r="H135" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I135" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136" t="str">
-            <v>Л25</v>
-          </cell>
-          <cell r="C136">
-            <v>10</v>
-          </cell>
-          <cell r="D136" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="E136" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="F136" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G136" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="H136" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I136" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J136" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="K136" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="L136" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137" t="str">
-            <v>Л30</v>
-          </cell>
-          <cell r="C137">
-            <v>10</v>
-          </cell>
-          <cell r="D137" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="E137" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="F137" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G137" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="H137" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I137" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J137" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="K137" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="L137" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138" t="str">
-            <v>Л35</v>
-          </cell>
-          <cell r="C138">
-            <v>10</v>
-          </cell>
-          <cell r="D138" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="E138" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="F138" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G138" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="H138" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I138" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J138" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="K138" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="L138" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139" t="str">
-            <v>Л2020</v>
-          </cell>
-          <cell r="C139">
-            <v>10</v>
-          </cell>
-          <cell r="D139">
-            <v>21</v>
-          </cell>
-          <cell r="E139">
-            <v>14</v>
-          </cell>
-          <cell r="F139">
-            <v>130</v>
-          </cell>
-          <cell r="G139">
-            <v>300</v>
-          </cell>
-          <cell r="H139">
-            <v>0.3</v>
-          </cell>
-          <cell r="I139" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J139">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140" t="str">
-            <v>Л2025</v>
-          </cell>
-          <cell r="C140">
-            <v>10</v>
-          </cell>
-          <cell r="D140">
-            <v>21</v>
-          </cell>
-          <cell r="E140">
-            <v>14</v>
-          </cell>
-          <cell r="F140">
-            <v>130</v>
-          </cell>
-          <cell r="G140">
-            <v>300</v>
-          </cell>
-          <cell r="H140">
-            <v>0.3</v>
-          </cell>
-          <cell r="I140" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J140">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141" t="str">
-            <v>Адгезал50</v>
-          </cell>
-          <cell r="C141">
-            <v>10</v>
-          </cell>
-          <cell r="D141" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="E141" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="F141" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G141" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="H141" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I141" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J141" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="K141" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="L141" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142" t="str">
-            <v>Адгезал60</v>
-          </cell>
-          <cell r="C142">
-            <v>10</v>
-          </cell>
-          <cell r="D142" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="E142" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="F142" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G142" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="H142" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I142" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J142" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="K142" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="L142" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143" t="str">
-            <v>Адгезал40</v>
-          </cell>
-          <cell r="C143">
-            <v>10</v>
-          </cell>
-          <cell r="D143" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="E143" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="F143" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G143" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="H143" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I143" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J143" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="K143" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="L143" t="str">
-            <v>-</v>
           </cell>
         </row>
       </sheetData>
@@ -25155,15 +20611,15 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25181,7 +20637,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="22" t="str">
@@ -25202,7 +20658,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -25220,67 +20676,67 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="82"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.45">
+      <c r="A5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="85"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -25298,21 +20754,21 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="27.4" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="8">
         <f>E14</f>
         <v>1349</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="26"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
       <c r="L8" s="4"/>
@@ -25321,7 +20777,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -25345,21 +20801,21 @@
       </c>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="7"/>
       <c r="L10" s="4"/>
       <c r="M10" s="11">
@@ -25376,23 +20832,23 @@
       </c>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="36" t="str">
+      <c r="C11" s="76" t="str">
         <f>CONCATENATE(N10,"Х",M10," мм",","," ","марка")</f>
         <v>615Х0,025 мм, марка</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37" t="str">
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77" t="str">
         <f>VLOOKUP($E$14,[1]Данные!$A2:$W500,7,FALSE)</f>
         <v>Л</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="7"/>
       <c r="L11" s="4"/>
       <c r="M11" s="9">
@@ -25405,19 +20861,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
       <c r="K12" s="7"/>
       <c r="L12" s="4"/>
       <c r="M12" s="9"/>
@@ -25425,17 +20881,17 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="7"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -25443,25 +20899,25 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="40">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="79">
         <v>1349</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="41" t="str">
+      <c r="H14" s="80" t="str">
         <f>TEXT(VLOOKUP($E$14,[1]Данные!$A2:$W500,8,FALSE),1)</f>
         <v>прозрачный</v>
       </c>
-      <c r="I14" s="41"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
       <c r="L14" s="4"/>
@@ -25470,16 +20926,16 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
       <c r="L15" s="4"/>
@@ -25488,18 +20944,18 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
       <c r="L16" s="4"/>
@@ -25508,16 +20964,16 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
       <c r="L17" s="4"/>
@@ -25526,18 +20982,18 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
       <c r="L18" s="4"/>
@@ -25546,16 +21002,16 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
       <c r="L19" s="4"/>
@@ -25564,20 +21020,20 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="43" t="s">
-        <v>41</v>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68" t="s">
+        <v>39</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
       <c r="L20" s="4"/>
@@ -25586,16 +21042,16 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="5"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
       <c r="L21" s="4"/>
@@ -25604,25 +21060,25 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="5"/>
       <c r="B22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="46" t="s">
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="46" t="s">
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="48"/>
+      <c r="J22" s="73"/>
       <c r="K22" s="7"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -25630,27 +21086,21 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="14">
         <v>1</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52">
-        <f>VLOOKUP(CONCATENATE($H$11,$M$11),'[1]Нормы по ТУ'!$A$1:$L$143,3,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55">
-        <f>VLOOKUP($E$14,[1]Данные!$A$1:X500,24,FALSE)</f>
-        <v>0.08</v>
-      </c>
-      <c r="J23" s="56"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
       <c r="K23" s="7"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -25658,26 +21108,25 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="15">
         <v>2</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60" t="s">
-        <v>40</v>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="62" t="s">
+        <v>38</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63" t="str">
-        <f>CONCATENATE(VLOOKUP($E$14,[1]Данные!$A$1:X500,13,FALSE)," мм")</f>
-        <v xml:space="preserve"> +5/-0 мм</v>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65" t="s">
+        <v>38</v>
       </c>
-      <c r="J24" s="64"/>
+      <c r="J24" s="66"/>
       <c r="K24" s="7"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -25685,25 +21134,25 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="15">
         <v>3</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="70" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73" t="s">
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="74"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="7"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -25711,29 +21160,23 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="15">
         <v>4</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="58"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="65" t="str">
-        <f>VLOOKUP(CONCATENATE($H$11,$M$11),'[1]Нормы по ТУ'!$A$1:$L$143,4,FALSE)</f>
-        <v>-</v>
-      </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="68">
-        <f>VLOOKUP($E$14,[1]Данные!$A$1:$W500,14,FALSE)</f>
-        <v>28.9</v>
-      </c>
-      <c r="J26" s="69"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="7"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -25741,27 +21184,21 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="15">
         <v>5</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="65" t="str">
-        <f>VLOOKUP(CONCATENATE($H$11,$M$11),'[1]Нормы по ТУ'!$A$1:$L$143,5,FALSE)</f>
-        <v>-</v>
-      </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="68">
-        <f>VLOOKUP($E$14,[1]Данные!$A$1:$W500,15,FALSE)</f>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="J27" s="69"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
       <c r="K27" s="7"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -25769,29 +21206,23 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="15">
         <v>6</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="58"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="65" t="str">
-        <f>VLOOKUP(CONCATENATE($H$11,$M$11),'[1]Нормы по ТУ'!$A$1:$L$143,6,FALSE)</f>
-        <v>-</v>
-      </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="68">
-        <f>VLOOKUP($E$14,[1]Данные!$A$1:$W500,16,FALSE)</f>
-        <v>229</v>
-      </c>
-      <c r="J28" s="69"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
       <c r="K28" s="7"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -25799,27 +21230,21 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="15">
         <v>7</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="65" t="str">
-        <f>VLOOKUP(CONCATENATE($H$11,$M$11),'[1]Нормы по ТУ'!$A$1:$L$143,7,FALSE)</f>
-        <v>-</v>
-      </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68">
-        <f>VLOOKUP($E$14,[1]Данные!$A$1:$W500,17,FALSE)</f>
-        <v>641</v>
-      </c>
-      <c r="J29" s="69"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
       <c r="K29" s="7"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -25827,27 +21252,21 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="15">
         <v>8</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="65" t="str">
-        <f>VLOOKUP(CONCATENATE($H$11,$M$11),'[1]Нормы по ТУ'!$A$1:$L$143,8,FALSE)</f>
-        <v>-</v>
-      </c>
-      <c r="G30" s="66"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68">
-        <f>VLOOKUP($E$14,[1]Данные!$A$1:$W500,18,FALSE)</f>
-        <v>0.21</v>
-      </c>
-      <c r="J30" s="69"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
       <c r="K30" s="7"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -25855,25 +21274,21 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="15">
         <v>9</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="76"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="74"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="7"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -25881,26 +21296,21 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="5"/>
       <c r="B32" s="17">
         <v>10</v>
       </c>
-      <c r="C32" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81" t="s">
+      <c r="C32" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="84">
-        <f>IF($H$14=$P$11,$M$11*(VLOOKUP(CONCATENATE($H$11,$M$11),'[1]Нормы по ТУ'!$A$1:$M$143,13,FALSE)),$M$11*0.92)</f>
-        <v>23</v>
-      </c>
-      <c r="J32" s="85"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="44"/>
       <c r="K32" s="7"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -25908,60 +21318,60 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="26" t="s">
-        <v>34</v>
+      <c r="B33" s="24" t="s">
+        <v>32</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="86" t="s">
-        <v>35</v>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25" t="s">
+        <v>33</v>
       </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="87"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="26"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="88" t="s">
+      <c r="E34" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="89"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="39" t="s">
-        <v>36</v>
+      <c r="B35" s="23" t="s">
+        <v>34</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="6"/>
       <c r="K35" s="7"/>
       <c r="L35" s="4"/>
@@ -25970,19 +21380,19 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="90" t="str">
+      <c r="B36" s="29" t="str">
         <f>CONCATENATE("ООО Нова Ролл Пак №",E14," ",E20)</f>
         <v>ООО Нова Ролл Пак №1349 18.08.2022 г.</v>
       </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
       <c r="J36" s="6"/>
       <c r="K36" s="7"/>
       <c r="L36" s="4"/>
@@ -25991,11 +21401,11 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -26009,13 +21419,13 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="39" t="s">
-        <v>37</v>
+      <c r="B38" s="23" t="s">
+        <v>35</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -26029,21 +21439,21 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="39" t="s">
-        <v>38</v>
+      <c r="B39" s="23" t="s">
+        <v>36</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="39" t="s">
-        <v>39</v>
+      <c r="I39" s="23" t="s">
+        <v>37</v>
       </c>
-      <c r="J39" s="39"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="7"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -26051,7 +21461,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -26074,21 +21484,39 @@
     <protectedRange sqref="G8 C11:J11 H14:I14 M9:P11 F23:H23 I23:J24 F26:J30 I32:J32 B36:I36" name="Формулы"/>
   </protectedRanges>
   <mergeCells count="64">
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:K33"/>
-    <mergeCell ref="E34:K34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="I30:J30"/>
@@ -26105,39 +21533,21 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:D37"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>

--- a/Quality2/wwwroot/template.xlsx
+++ b/Quality2/wwwroot/template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ</t>
   </si>
@@ -39,22 +39,10 @@
     <t>ПАСПОРТ</t>
   </si>
   <si>
-    <t>Толщина</t>
-  </si>
-  <si>
-    <t>Ширина</t>
-  </si>
-  <si>
-    <t>Цвет</t>
-  </si>
-  <si>
     <t>Наименование продукта</t>
   </si>
   <si>
     <t>"ПЛЕНКА ПОЛИМЕРНАЯ, МНОГОСЛОЙНАЯ</t>
-  </si>
-  <si>
-    <t>белый</t>
   </si>
   <si>
     <t>ТУ 22.21.30-002-03210778-2022</t>
@@ -775,219 +763,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1026,6 +814,206 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20677,19 +20665,19 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="82"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -20697,19 +20685,19 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.45">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="85"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -20717,19 +20705,19 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="88"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -20758,17 +20746,17 @@
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="8">
         <f>E14</f>
         <v>1349</v>
       </c>
-      <c r="H8" s="90"/>
-      <c r="I8" s="24"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
       <c r="L8" s="4"/>
@@ -20790,90 +20778,70 @@
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
-      <c r="B10" s="67" t="s">
-        <v>7</v>
+      <c r="B10" s="23" t="s">
+        <v>4</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="74" t="s">
-        <v>8</v>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24" t="s">
+        <v>5</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="7"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="11">
-        <f>VLOOKUP($E$14,[1]Данные!$A2:$W500,10,FALSE)/1000</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N10" s="9">
-        <f>VLOOKUP($E$14,[1]Данные!$A2:$W500,9,FALSE)</f>
-        <v>615</v>
-      </c>
-      <c r="O10" s="9" t="str">
-        <f>VLOOKUP($E$14,[1]Данные!$A2:$W500,8,FALSE)</f>
-        <v>прозрачный</v>
-      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="76" t="str">
+      <c r="C11" s="36" t="str">
         <f>CONCATENATE(N10,"Х",M10," мм",","," ","марка")</f>
-        <v>615Х0,025 мм, марка</v>
+        <v>Х мм, марка</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="77" t="str">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37" t="str">
         <f>VLOOKUP($E$14,[1]Данные!$A2:$W500,7,FALSE)</f>
         <v>Л</v>
       </c>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="7"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="9">
-        <f>VLOOKUP($E$14,[1]Данные!$A2:$W500,10,FALSE)</f>
-        <v>25</v>
-      </c>
+      <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="78" t="s">
-        <v>10</v>
+      <c r="C12" s="38" t="s">
+        <v>6</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="7"/>
       <c r="L12" s="4"/>
       <c r="M12" s="9"/>
@@ -20883,15 +20851,15 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="7"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -20901,23 +20869,23 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="24" t="s">
-        <v>11</v>
+      <c r="B14" s="26" t="s">
+        <v>7</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="79">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="40">
         <v>1349</v>
       </c>
-      <c r="F14" s="79"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
-      <c r="H14" s="80" t="str">
+      <c r="H14" s="41" t="str">
         <f>TEXT(VLOOKUP($E$14,[1]Данные!$A2:$W500,8,FALSE),1)</f>
         <v>прозрачный</v>
       </c>
-      <c r="I14" s="80"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
       <c r="L14" s="4"/>
@@ -20928,14 +20896,14 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
       <c r="L15" s="4"/>
@@ -20946,16 +20914,16 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="67" t="s">
-        <v>13</v>
+      <c r="B16" s="23" t="s">
+        <v>9</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
       <c r="L16" s="4"/>
@@ -20966,14 +20934,14 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
       <c r="L17" s="4"/>
@@ -20984,16 +20952,16 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="67" t="s">
-        <v>14</v>
+      <c r="B18" s="23" t="s">
+        <v>10</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
       <c r="L18" s="4"/>
@@ -21004,14 +20972,14 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
       <c r="L19" s="4"/>
@@ -21022,18 +20990,18 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="67" t="s">
-        <v>15</v>
+      <c r="B20" s="23" t="s">
+        <v>11</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68" t="s">
-        <v>39</v>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="43" t="s">
+        <v>35</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
       <c r="L20" s="4"/>
@@ -21044,14 +21012,14 @@
     </row>
     <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="5"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
       <c r="L21" s="4"/>
@@ -21063,22 +21031,22 @@
     <row r="22" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="5"/>
       <c r="B22" s="13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="C22" s="71" t="s">
-        <v>17</v>
+      <c r="C22" s="46" t="s">
+        <v>13</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="71" t="s">
-        <v>18</v>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="46" t="s">
+        <v>14</v>
       </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="71" t="s">
-        <v>19</v>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="46" t="s">
+        <v>15</v>
       </c>
-      <c r="J22" s="73"/>
+      <c r="J22" s="48"/>
       <c r="K22" s="7"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -21091,16 +21059,16 @@
       <c r="B23" s="14">
         <v>1</v>
       </c>
-      <c r="C23" s="54" t="s">
-        <v>20</v>
+      <c r="C23" s="49" t="s">
+        <v>16</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="7"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -21113,20 +21081,20 @@
       <c r="B24" s="15">
         <v>2</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>21</v>
+      <c r="C24" s="57" t="s">
+        <v>17</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="62" t="s">
-        <v>38</v>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60" t="s">
+        <v>34</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65" t="s">
-        <v>38</v>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63" t="s">
+        <v>34</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="7"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -21139,20 +21107,20 @@
       <c r="B25" s="15">
         <v>3</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>22</v>
+      <c r="C25" s="57" t="s">
+        <v>18</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="50" t="s">
-        <v>23</v>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="70" t="s">
+        <v>19</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53" t="s">
-        <v>24</v>
+      <c r="G25" s="71"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73" t="s">
+        <v>20</v>
       </c>
-      <c r="J25" s="35"/>
+      <c r="J25" s="74"/>
       <c r="K25" s="7"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -21165,18 +21133,18 @@
       <c r="B26" s="15">
         <v>4</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>25</v>
+      <c r="C26" s="57" t="s">
+        <v>21</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="7"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -21189,16 +21157,16 @@
       <c r="B27" s="15">
         <v>5</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="69"/>
       <c r="K27" s="7"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -21211,18 +21179,18 @@
       <c r="B28" s="15">
         <v>6</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>28</v>
+      <c r="C28" s="57" t="s">
+        <v>24</v>
       </c>
-      <c r="D28" s="31"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="49"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="69"/>
       <c r="K28" s="7"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -21235,16 +21203,16 @@
       <c r="B29" s="15">
         <v>7</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="49"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="69"/>
       <c r="K29" s="7"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -21257,16 +21225,16 @@
       <c r="B30" s="15">
         <v>8</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>29</v>
+      <c r="C30" s="57" t="s">
+        <v>25</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="69"/>
       <c r="K30" s="7"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -21279,16 +21247,16 @@
       <c r="B31" s="15">
         <v>9</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>30</v>
+      <c r="C31" s="57" t="s">
+        <v>26</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="35"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="74"/>
       <c r="K31" s="7"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -21301,16 +21269,16 @@
       <c r="B32" s="17">
         <v>10</v>
       </c>
-      <c r="C32" s="37" t="s">
-        <v>31</v>
+      <c r="C32" s="78" t="s">
+        <v>27</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
       <c r="K32" s="7"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -21320,20 +21288,20 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="24" t="s">
-        <v>32</v>
+      <c r="B33" s="26" t="s">
+        <v>28</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25" t="s">
-        <v>33</v>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="86" t="s">
+        <v>29</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="87"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -21345,15 +21313,15 @@
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="27" t="s">
-        <v>10</v>
+      <c r="E34" s="88" t="s">
+        <v>6</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="89"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -21362,16 +21330,16 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="23" t="s">
-        <v>34</v>
+      <c r="B35" s="39" t="s">
+        <v>30</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
       <c r="J35" s="6"/>
       <c r="K35" s="7"/>
       <c r="L35" s="4"/>
@@ -21382,17 +21350,17 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="29" t="str">
+      <c r="B36" s="90" t="str">
         <f>CONCATENATE("ООО Нова Ролл Пак №",E14," ",E20)</f>
         <v>ООО Нова Ролл Пак №1349 18.08.2022 г.</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
       <c r="J36" s="6"/>
       <c r="K36" s="7"/>
       <c r="L36" s="4"/>
@@ -21403,9 +21371,9 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -21421,11 +21389,11 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="23" t="s">
-        <v>35</v>
+      <c r="B38" s="39" t="s">
+        <v>31</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -21441,19 +21409,19 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="23" t="s">
-        <v>36</v>
+      <c r="B39" s="39" t="s">
+        <v>32</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="23" t="s">
-        <v>37</v>
+      <c r="I39" s="39" t="s">
+        <v>33</v>
       </c>
-      <c r="J39" s="23"/>
+      <c r="J39" s="39"/>
       <c r="K39" s="7"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -21484,39 +21452,21 @@
     <protectedRange sqref="G8 C11:J11 H14:I14 M9:P11 F23:H23 I23:J24 F26:J30 I32:J32 B36:I36" name="Формулы"/>
   </protectedRanges>
   <mergeCells count="64">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="I30:J30"/>
@@ -21533,21 +21483,39 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:K33"/>
-    <mergeCell ref="E34:K34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
